--- a/translations/en/Global Indicator Framework after refinement.English.xlsx
+++ b/translations/en/Global Indicator Framework after refinement.English.xlsx
@@ -1,45 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Users\Chuck Norris\Environment\SO2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA8755D-5897-4DA5-A3DA-1759EDD6A396}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10808" yWindow="0" windowWidth="13177" windowHeight="12337" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="24480" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A.RES.71.313 Annex" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'A.RES.71.313 Annex'!$B$3:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'A.RES.71.313 Annex'!$B$3:$D$103</definedName>
     <definedName name="_ftn1" localSheetId="0">'A.RES.71.313 Annex'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'A.RES.71.313 Annex'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="0">'A.RES.71.313 Annex'!#REF!</definedName>
     <definedName name="_ftnref2" localSheetId="0">'A.RES.71.313 Annex'!#REF!</definedName>
     <definedName name="look">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>5.a Undertake reforms to give women equal rights to economic resources, as well as access to ownership and control over land and other forms of property, financial services, inheritance and natural resources, in accordance with national laws</t>
   </si>
@@ -450,9 +444,6 @@
     <t>6.3.9 Health impacts from heat and cold</t>
   </si>
   <si>
-    <t>6.3.10 Pathogens, air quality and UV radiation</t>
-  </si>
-  <si>
     <t>6.4.1 Transport network</t>
   </si>
   <si>
@@ -501,7 +492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -988,23 +979,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.5625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="35.9375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="36" style="14" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>32</v>
@@ -1012,7 +1003,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="37.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1020,7 +1011,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="26.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>27</v>
@@ -1032,15 +1023,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="39.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
         <v>33</v>
@@ -1053,7 +1044,7 @@
         <v>C010101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>34</v>
@@ -1062,11 +1053,11 @@
         <v>58</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D9" si="0">"C0"&amp;SUBSTITUTE(LEFT(C6,5),".","0")</f>
+        <f t="shared" ref="D6:D8" si="0">"C0"&amp;SUBSTITUTE(LEFT(C6,5),".","0")</f>
         <v>C010201</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="26.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1077,7 +1068,7 @@
         <v>C010202</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="52.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>35</v>
@@ -1090,7 +1081,7 @@
         <v>C010301</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
@@ -1101,15 +1092,15 @@
         <v>C010302</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="39.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>36</v>
@@ -1122,7 +1113,7 @@
         <v>C020101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="26.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1133,15 +1124,15 @@
         <v>C020102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>37</v>
@@ -1154,7 +1145,7 @@
         <v>C030101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="39.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>38</v>
@@ -1167,7 +1158,7 @@
         <v>C030201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="39.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>39</v>
@@ -1180,7 +1171,7 @@
         <v>C030301</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" ht="26.25" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -1191,7 +1182,7 @@
         <v>C030302</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" ht="26.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -1202,7 +1193,7 @@
         <v>C030303</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" ht="26.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
         <v>40</v>
@@ -1215,7 +1206,7 @@
         <v>C030401</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" ht="52.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="1" t="s">
@@ -1226,7 +1217,7 @@
         <v>C030402</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
         <v>41</v>
@@ -1239,7 +1230,7 @@
         <v>C030501</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -1250,7 +1241,7 @@
         <v>C030502</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" ht="29.25" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -1261,15 +1252,15 @@
         <v>C030503</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" ht="40.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
         <v>42</v>
@@ -1282,7 +1273,7 @@
         <v>C040101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" ht="52.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
@@ -1293,7 +1284,7 @@
         <v>C040102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" ht="42" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
@@ -1304,7 +1295,7 @@
         <v>C040103</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" ht="42" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -1315,7 +1306,7 @@
         <v>C040104</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" ht="65.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -1326,7 +1317,7 @@
         <v>C040105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" ht="38.25" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
         <v>43</v>
@@ -1339,7 +1330,7 @@
         <v>C040201</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="38.25" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -1350,7 +1341,7 @@
         <v>C040202</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="38.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
       <c r="C32" s="1" t="s">
@@ -1361,7 +1352,7 @@
         <v>C040203</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" ht="38.25" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
@@ -1372,7 +1363,7 @@
         <v>C040204</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" ht="65.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="6" t="s">
         <v>44</v>
@@ -1385,7 +1376,7 @@
         <v>C040301</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" ht="52.5" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -1396,7 +1387,7 @@
         <v>C040302</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
@@ -1407,7 +1398,7 @@
         <v>C040303</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>45</v>
@@ -1420,7 +1411,7 @@
         <v>C040401</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="6"/>
       <c r="C38" s="1" t="s">
@@ -1431,15 +1422,15 @@
         <v>C040402</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" ht="38.25" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>46</v>
@@ -1452,7 +1443,7 @@
         <v>C050101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" ht="38.25" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -1463,7 +1454,7 @@
         <v>C050102</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" ht="27.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -1474,7 +1465,7 @@
         <v>C050103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>47</v>
@@ -1487,7 +1478,7 @@
         <v>C050201</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" ht="12">
       <c r="A44" s="2"/>
       <c r="B44" s="6"/>
       <c r="C44" s="1" t="s">
@@ -1498,7 +1489,7 @@
         <v>C050202</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="6"/>
       <c r="C45" s="1" t="s">
@@ -1509,7 +1500,7 @@
         <v>C050203</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" ht="10">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>48</v>
@@ -1522,7 +1513,7 @@
         <v>C050301</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" ht="26.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -1533,7 +1524,7 @@
         <v>C050302</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" ht="10">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>49</v>
@@ -1546,7 +1537,7 @@
         <v>C050401</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" ht="39.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -1557,7 +1548,7 @@
         <v>C050402</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" ht="39.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1" t="s">
@@ -1568,7 +1559,7 @@
         <v>C050403</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" ht="26.25" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="6"/>
       <c r="C51" s="1" t="s">
@@ -1579,7 +1570,7 @@
         <v>C050404</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" ht="39.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -1590,7 +1581,7 @@
         <v>C050405</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" ht="27.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -1601,7 +1592,7 @@
         <v>C050406</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" ht="66" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -1612,7 +1603,7 @@
         <v>C050407</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -1623,7 +1614,7 @@
         <v>C050408</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" ht="26.25" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>50</v>
@@ -1636,7 +1627,7 @@
         <v>C050501</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" ht="39.5" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1" t="s">
@@ -1647,7 +1638,7 @@
         <v>C050502</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -1658,15 +1649,15 @@
         <v>C050503</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" ht="39.5" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="6" t="s">
         <v>51</v>
@@ -1679,7 +1670,7 @@
         <v>C060101</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" ht="38.25" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -1690,7 +1681,7 @@
         <v>C060102</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" ht="38.25" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="6"/>
       <c r="C62" s="1" t="s">
@@ -1701,7 +1692,7 @@
         <v>C060103</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" ht="38.25" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
@@ -1712,7 +1703,7 @@
         <v>C060104</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" ht="52.5" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -1723,7 +1714,7 @@
         <v>C060105</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" ht="39.5" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="6" t="s">
         <v>52</v>
@@ -1736,7 +1727,7 @@
         <v>C060201</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12" t="s">
@@ -1747,7 +1738,7 @@
         <v>C060202</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" ht="52.5" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -1758,7 +1749,7 @@
         <v>C060203</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" ht="39.5" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="6"/>
       <c r="C68" s="1" t="s">
@@ -1769,7 +1760,7 @@
         <v>C060204</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" ht="26.25" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="6" t="s">
         <v>53</v>
@@ -1782,7 +1773,7 @@
         <v>C060301</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" ht="39.5" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -1793,7 +1784,7 @@
         <v>C060302</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" ht="39.5" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -1804,7 +1795,7 @@
         <v>C060303</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" ht="52.5" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
@@ -1815,7 +1806,7 @@
         <v>C060304</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" ht="40.5" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -1826,7 +1817,7 @@
         <v>C060305</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" ht="78.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="6"/>
       <c r="C74" s="1" t="s">
@@ -1837,7 +1828,7 @@
         <v>C060306</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" ht="78.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="6"/>
       <c r="C75" s="1" t="s">
@@ -1848,18 +1839,18 @@
         <v>C060307</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="91.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" ht="92" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" ref="D76:D104" si="2">"C0"&amp;SUBSTITUTE(LEFT(C76,5),".","0")</f>
+        <f t="shared" ref="D76:D103" si="2">"C0"&amp;SUBSTITUTE(LEFT(C76,5),".","0")</f>
         <v>C060308</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" ht="64" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -1870,31 +1861,31 @@
         <v>C060309</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" ht="10">
       <c r="A78" s="2"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+        <v>C060401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="53.25" customHeight="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="40.5" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="6"/>
       <c r="C80" s="1" t="s">
@@ -1902,34 +1893,34 @@
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="27.75" customHeight="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="27.75" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="52.5" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -1937,10 +1928,10 @@
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060502</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="27" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -1948,257 +1939,246 @@
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060503</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="40.5" customHeight="1">
       <c r="A86" s="2"/>
-      <c r="B86" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="B86" s="6"/>
       <c r="C86" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="40.5" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="6"/>
       <c r="C87" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060602</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C050602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="52.5" customHeight="1">
       <c r="A88" s="2"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C88" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C050602</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C050a01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="39.5" customHeight="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C050a01</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C050a02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="39.5" customHeight="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C050a02</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C050b01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="39.5" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C050b01</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C050c01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C050c01</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="26.25" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D93" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="39.5" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="38.25" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="38.25" customHeight="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="38.25" customHeight="1">
       <c r="A97" s="2"/>
-      <c r="B97" s="6"/>
+      <c r="B97" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="38.25" customHeight="1">
       <c r="A98" s="2"/>
-      <c r="B98" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B98" s="6"/>
       <c r="C98" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="27.75" customHeight="1">
       <c r="A99" s="2"/>
-      <c r="B99" s="6"/>
+      <c r="B99" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C99" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="27" customHeight="1">
       <c r="A100" s="2"/>
-      <c r="B100" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060501</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="26.25" customHeight="1">
       <c r="A101" s="2"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D101" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060502</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="65.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060601</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.5">
+        <v>C060a01</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="39.5" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C060a01</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="2"/>
-      <c r="B104" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>C060b01</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D104" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:D103"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/translations/en/Global Indicator Framework after refinement.English.xlsx
+++ b/translations/en/Global Indicator Framework after refinement.English.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="420" windowWidth="21580" windowHeight="23120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A.RES.71.313 Annex" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>Metrics overview</t>
   </si>
   <si>
-    <t>Areas and Topics</t>
-  </si>
-  <si>
     <t>7.1 Population</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>7.1.3 Population growth projections</t>
+  </si>
+  <si>
+    <t>Areas and Targets</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1085,7 +1085,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>108</v>
@@ -1730,20 +1730,20 @@
     <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="C89" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="C90" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
